--- a/pred_ohlcv/54_21/2020-01-16 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-52897.41684285315</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-49978.73704285315</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-44905.00064285315</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-45266.72394285315</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-53264.39684285315</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-56952.91674285315</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-56352.91674285315</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-59297.64994285315</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-138085.1379428532</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-138085.1379428532</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-138085.1379428532</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-133318.3548428532</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-133318.3548428532</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-132514.0724428532</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-132514.0724428532</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-130090.8656428532</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-130155.6205428532</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-129552.5115428532</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-129549.2471428532</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-133498.9260428532</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-133498.9260428532</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-124777.8514428532</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-124777.8514428532</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-124641.3423428532</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-123747.2046428532</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-120724.1526428532</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-118883.2073428532</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-115696.2990751168</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-115542.7671751168</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-113283.5436000595</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-104426.9316000595</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-104426.9316000595</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-103322.7917000595</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-103377.7917000595</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-103377.7917000595</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-90155.57270005954</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-90155.57270005954</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-90155.57270005954</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-93264.66070005954</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-88583.25430005953</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-89250.64100005952</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-89510.63600005952</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-87271.38600005952</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-82234.68720005952</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-78637.92990005952</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-77206.38620005953</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-74431.22210005953</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-67105.67620005953</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-67105.67620005953</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-67084.67620005953</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-67102.67620005953</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-67073.67620005953</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-62009.74760005953</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-63447.29090005953</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-63447.29090005953</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-56085.98950005953</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-56290.98950005953</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-62071.65360005953</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-62071.65360005953</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-65278.39680005953</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-62211.89910005953</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-62211.89910005953</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-63330.23460005953</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-63328.41970005953</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-34588.11386728925</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-32390.91716728924</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-33137.09016728924</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>13631.81963271076</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>13627.41963271076</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>22897.07853271076</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>22892.87853271076</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>23057.39483271076</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>23068.09033271076</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>28123.49783271076</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>28123.49783271076</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>27931.49783271076</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>35563.43623271076</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>34629.68323271076</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>32229.68323271076</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>31107.68323271076</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>29691.29773271076</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>29596.58393271076</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>26062.61793271076</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>11099.02323271076</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>5518.409732710761</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>5170.422332710761</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>5474.123332710761</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6274.123332710761</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6274.123332710761</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6248.123332710761</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2690.143667289239</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>13659.68033271076</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>21057.28283271076</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>21057.28283271076</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>18042.98283271076</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>18321.98283271076</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>18467.02633271076</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>21167.02633271076</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>14194.00713271077</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>14990.10183271076</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>15081.82933271077</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>15340.87643271077</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>15100.87653271076</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>18770.82313271076</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>19560.86303271076</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>10618.43873271076</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>11055.49933271076</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>10971.49933271076</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>10654.49933271076</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>15881.80133271076</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>15797.80133271076</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>15394.68103271076</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>17458.80203271076</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>19458.80203271076</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>19458.80203271076</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>21153.34773271076</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>21153.34773271076</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>7707.646932710761</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>7451.99653271076</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-18428.65756728924</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-18428.65756728924</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-24193.98296728924</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-23693.98296728924</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-24914.4193457558</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-26147.0174457558</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-26503.13684575579</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-26611.7661457558</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-26111.7661457558</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-19080.9078457558</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-19126.95164575579</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-19200.3371457558</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-23904.55664575579</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-24213.44764575579</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-23215.44764575579</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-24477.94354575579</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-24500.14354575579</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>12471.06125424421</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>12468.86125424421</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>11764.27615424421</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2550.068945755795</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2552.368945755795</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-40654.9560457558</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-40654.9560457558</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-38074.7733457558</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-31030.8424457558</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-29966.40484575579</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-29966.40484575579</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-30013.7763457558</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-30061.1478457558</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-30468.1148457558</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-29824.3780457558</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-29834.3780457558</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-36781.6530457558</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-30744.0265457558</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-30744.0265457558</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-30654.7678457558</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-30663.2584457558</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-30621.2584457558</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-19621.2584457558</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-19824.2877457558</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-19824.2877457558</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-19503.19144575579</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-14954.60704575579</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-8733.351145755796</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-7833.351145755796</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-7938.458445755796</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-7802.020577937899</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-36195.9458779379</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-36002.0938779379</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-24047.7862779379</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-21563.7899779379</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-21563.7899779379</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-31418.2498779379</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-30131.4861779379</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-30183.5561779379</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-30183.5561779379</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-30153.5561779379</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-35545.3704779379</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-31790.9103779379</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-33790.91037793791</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-32790.91037793791</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-32990.91037793791</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-33590.91037793791</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-35763.25557793791</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-31072.26687793791</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-30745.52997793791</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-31289.88197793791</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-32917.87517793791</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-32917.87517793791</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-32725.97937793791</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-32725.97937793791</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-31288.37767793791</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-31188.37767793791</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-29038.37767793791</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-26712.66985689736</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-26712.66985689736</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-25721.91185689736</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-25721.91185689736</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-27721.91185689736</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-30951.52505689736</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-30086.96755689736</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-70086.96755689736</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-66975.65885689737</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-66073.49655689737</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-63288.73292704946</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-63366.03117742998</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-54130.97177742997</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-52130.97177742997</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-49420.93627742997</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-50285.49377742998</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-47960.22697742998</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-59719.72607742998</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-61319.72607742998</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-61319.72607742998</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-26201.10817742998</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-34444.10817742998</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-34494.10817742998</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-31239.49487742998</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-31249.49487742998</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-32198.08237742998</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BAT ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>-138085.1379428532</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-129552.5115428532</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-129549.2471428532</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-133498.9260428532</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-133498.9260428532</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-124777.8514428532</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-124777.8514428532</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-124641.3423428532</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-123747.2046428532</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-120724.1526428532</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-118883.2073428532</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-115696.2990751168</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-115542.7671751168</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-113283.5436000595</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-104426.9316000595</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-104426.9316000595</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-103322.7917000595</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-103377.7917000595</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-103377.7917000595</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-90155.57270005954</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-90155.57270005954</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-90155.57270005954</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-93264.66070005954</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-89454.51780005953</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-90152.72330005953</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-88583.25430005953</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-89250.64100005952</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-89510.63600005952</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-87271.38600005952</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-82234.68720005952</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-78637.92990005952</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-74431.22210005953</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-67105.67620005953</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-67105.67620005953</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-67084.67620005953</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-67102.67620005953</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-67102.67620005953</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-67073.67620005953</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-62009.74760005953</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-63447.29090005953</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-63447.29090005953</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-56085.98950005953</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-56290.98950005953</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-62071.65360005953</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-62071.65360005953</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-65278.39680005953</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-62211.89910005953</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-62211.89910005953</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-63330.23460005953</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-63328.41970005953</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-34588.11386728925</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-32390.91716728924</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-33137.09016728924</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>13631.81963271076</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>13627.41963271076</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>22897.07853271076</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>22892.87853271076</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>23057.39483271076</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>23068.09033271076</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>28123.49783271076</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>28123.49783271076</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>27931.49783271076</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>35563.43623271076</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>34629.68323271076</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>32229.68323271076</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>31107.68323271076</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>29691.29773271076</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>29596.58393271076</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>26062.61793271076</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>11099.02323271076</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>5518.409732710761</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>5170.422332710761</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>5474.123332710761</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6274.123332710761</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6274.123332710761</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6248.123332710761</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2690.143667289239</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>13659.68033271076</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>21057.28283271076</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>21057.28283271076</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>18042.98283271076</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>18321.98283271076</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>18467.02633271076</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>21167.02633271076</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>14194.00713271077</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>14990.10183271076</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>15081.82933271077</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>15340.87643271077</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>15100.87653271076</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>18770.82313271076</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>19560.86303271076</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>10618.43873271076</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>11055.49933271076</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>10971.49933271076</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>10654.49933271076</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>15881.80133271076</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>15797.80133271076</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>15394.68103271076</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>17458.80203271076</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>19458.80203271076</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>19458.80203271076</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>21153.34773271076</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>21153.34773271076</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>7707.646932710761</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>7451.99653271076</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-18428.65756728924</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-18428.65756728924</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-24193.98296728924</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-23693.98296728924</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-24914.4193457558</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-26147.0174457558</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-26503.13684575579</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-26611.7661457558</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-26111.7661457558</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-19080.9078457558</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-19126.95164575579</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-19200.3371457558</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-23904.55664575579</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-24213.44764575579</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-23215.44764575579</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-24477.94354575579</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-24500.14354575579</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>12471.06125424421</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>12468.86125424421</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>11764.27615424421</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2550.068945755795</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2552.368945755795</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-40654.9560457558</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-40654.9560457558</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-38074.7733457558</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-31030.8424457558</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-29966.40484575579</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-29966.40484575579</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-30013.7763457558</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-30061.1478457558</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-30468.1148457558</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-29824.3780457558</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-29834.3780457558</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-36781.6530457558</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-30744.0265457558</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-30744.0265457558</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-30654.7678457558</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-30663.2584457558</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-30621.2584457558</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-19621.2584457558</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-19824.2877457558</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-19824.2877457558</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-19503.19144575579</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-14954.60704575579</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-12119.43334575579</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-13198.06254575579</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-15370.87984575579</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-15398.08634575579</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-13652.34264575579</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-13652.34264575579</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-13150.0138457558</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-13512.4723457558</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-9122.472345755796</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-9122.472345755796</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-8718.351145755796</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-8718.351145755796</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-8733.351145755796</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-7833.351145755796</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-7938.458445755796</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-7802.020577937899</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-36195.9458779379</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-36002.0938779379</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-36421.5038779379</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-37826.4949779379</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-24047.7862779379</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-21563.7899779379</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-21563.7899779379</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-31418.2498779379</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-30131.4861779379</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-30183.5561779379</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-30183.5561779379</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-30153.5561779379</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-35545.3704779379</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-31790.9103779379</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-33790.91037793791</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-32790.91037793791</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-32990.91037793791</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-33590.91037793791</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-35763.25557793791</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-31072.26687793791</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-30745.52997793791</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-31289.88197793791</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-32917.87517793791</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-32917.87517793791</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-32725.97937793791</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-32725.97937793791</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-31288.37767793791</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-31188.37767793791</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-29038.37767793791</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-26712.66985689736</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-26712.66985689736</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-25721.91185689736</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-25721.91185689736</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-27721.91185689736</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-30951.52505689736</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-30086.96755689736</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-70086.96755689736</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-66975.65885689737</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-66073.49655689737</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-63288.73292704946</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-63366.03117742998</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-54130.97177742997</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-52130.97177742997</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-49420.93627742997</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-50285.49377742998</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-47960.22697742998</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-59719.72607742998</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-61319.72607742998</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-61319.72607742998</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-26201.10817742998</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-34444.10817742998</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-34494.10817742998</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-31239.49487742998</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-31249.49487742998</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-32198.08237742998</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
